--- a/output/datos_serializados.xlsx
+++ b/output/datos_serializados.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,11 @@
           <t>funciones_deseadas_app</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>age_range</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -511,8 +516,10 @@
       <c r="B2" s="2" t="n">
         <v>45789.73375</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="b">
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="b">
@@ -550,7 +557,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>['Reporte de incidentes con fotos']</t>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>(24, 36]</t>
         </is>
       </c>
     </row>
@@ -564,7 +576,7 @@
       <c r="C3" t="n">
         <v>44</v>
       </c>
-      <c r="D3" t="b">
+      <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="b">
@@ -602,7 +614,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>['Contacto con autoridades']</t>
+          <t>[3]</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>(36, 48]</t>
         </is>
       </c>
     </row>
@@ -616,7 +633,7 @@
       <c r="C4" t="n">
         <v>41</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="b">
@@ -654,7 +671,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>['Reporte de incidentes con fotos']</t>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>(36, 48]</t>
         </is>
       </c>
     </row>
@@ -668,7 +690,7 @@
       <c r="C5" t="n">
         <v>19</v>
       </c>
-      <c r="D5" t="b">
+      <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="b">
@@ -706,7 +728,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>['Ubicación del incidente', 'Notificaciones de seguimiento', 'Foro comunitario']</t>
+          <t>[1, 2, 4]</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>(12, 24]</t>
         </is>
       </c>
     </row>
@@ -720,7 +747,7 @@
       <c r="C6" t="n">
         <v>25</v>
       </c>
-      <c r="D6" t="b">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="b">
@@ -758,7 +785,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>['Reporte de incidentes con fotos', 'Ubicación del incidente', 'Notificaciones de seguimiento']</t>
+          <t>[0, 1, 2]</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>(24, 36]</t>
         </is>
       </c>
     </row>
@@ -772,7 +804,7 @@
       <c r="C7" t="n">
         <v>26</v>
       </c>
-      <c r="D7" t="b">
+      <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="b">
@@ -810,7 +842,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>['Ubicación del incidente', 'Notificaciones de seguimiento']</t>
+          <t>[1, 2]</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>(24, 36]</t>
         </is>
       </c>
     </row>
@@ -824,7 +861,7 @@
       <c r="C8" t="n">
         <v>45</v>
       </c>
-      <c r="D8" t="b">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="b">
@@ -862,7 +899,12 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>['Reporte de incidentes con fotos', 'Ubicación del incidente']</t>
+          <t>[0, 1]</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>(36, 48]</t>
         </is>
       </c>
     </row>
@@ -876,7 +918,7 @@
       <c r="C9" t="n">
         <v>48</v>
       </c>
-      <c r="D9" t="b">
+      <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="b">
@@ -914,7 +956,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>['Reporte de incidentes con fotos', 'Contacto con autoridades']</t>
+          <t>[0, 3]</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>(36, 48]</t>
         </is>
       </c>
     </row>
@@ -925,8 +972,10 @@
       <c r="B10" s="2" t="n">
         <v>45790.74873842593</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="b">
+      <c r="C10" t="n">
+        <v>26</v>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="b">
@@ -964,7 +1013,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>['Reporte de incidentes con fotos']</t>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>(24, 36]</t>
         </is>
       </c>
     </row>
@@ -978,7 +1032,7 @@
       <c r="C11" t="n">
         <v>18</v>
       </c>
-      <c r="D11" t="b">
+      <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="b">
@@ -1016,7 +1070,12 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>['Contacto con autoridades']</t>
+          <t>[3]</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>(12, 24]</t>
         </is>
       </c>
     </row>
@@ -1027,8 +1086,10 @@
       <c r="B12" s="2" t="n">
         <v>45790.76603009259</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="b">
+      <c r="C12" t="n">
+        <v>26</v>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="b">
@@ -1066,7 +1127,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>['Reporte de incidentes con fotos', 'Foro comunitario']</t>
+          <t>[0, 4]</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>(24, 36]</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1146,7 @@
       <c r="C13" t="n">
         <v>21</v>
       </c>
-      <c r="D13" t="b">
+      <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="b">
@@ -1118,7 +1184,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>['Reporte de incidentes con fotos', 'Ubicación del incidente', 'Notificaciones de seguimiento', 'Contacto con autoridades', 'Foro comunitario']</t>
+          <t>[0, 1, 2, 3, 4]</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>(12, 24]</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1203,7 @@
       <c r="C14" t="n">
         <v>21</v>
       </c>
-      <c r="D14" t="b">
+      <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="b">
@@ -1170,7 +1241,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>['Reporte de incidentes con fotos', 'Ubicación del incidente', 'Notificaciones de seguimiento', 'Contacto con autoridades', 'Foro comunitario']</t>
+          <t>[0, 1, 2, 3, 4]</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>(12, 24]</t>
         </is>
       </c>
     </row>
@@ -1181,8 +1257,10 @@
       <c r="B15" s="2" t="n">
         <v>45790.83541666667</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="b">
+      <c r="C15" t="n">
+        <v>26</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="b">
@@ -1220,7 +1298,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>['Reporte de incidentes con fotos', 'Ubicación del incidente', 'Notificaciones de seguimiento', 'Contacto con autoridades', 'Foro comunitario']</t>
+          <t>[0, 1, 2, 3, 4]</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>(24, 36]</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1317,7 @@
       <c r="C16" t="n">
         <v>19</v>
       </c>
-      <c r="D16" t="b">
+      <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="b">
@@ -1272,7 +1355,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>['Reporte de incidentes con fotos', 'Ubicación del incidente', 'Notificaciones de seguimiento', 'Contacto con autoridades']</t>
+          <t>[0, 1, 2, 3]</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>(12, 24]</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1374,7 @@
       <c r="C17" t="n">
         <v>20</v>
       </c>
-      <c r="D17" t="b">
+      <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="b">
@@ -1324,7 +1412,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>['Ubicación del incidente']</t>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>(12, 24]</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1431,7 @@
       <c r="C18" t="n">
         <v>21</v>
       </c>
-      <c r="D18" t="b">
+      <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="b">
@@ -1376,7 +1469,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>['Reporte de incidentes con fotos', 'Contacto con autoridades']</t>
+          <t>[0, 3]</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>(12, 24]</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1488,7 @@
       <c r="C19" t="n">
         <v>22</v>
       </c>
-      <c r="D19" t="b">
+      <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="b">
@@ -1428,7 +1526,12 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>['Reporte de incidentes con fotos', 'Ubicación del incidente', 'Contacto con autoridades']</t>
+          <t>[0, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>(12, 24]</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1545,7 @@
       <c r="C20" t="n">
         <v>17</v>
       </c>
-      <c r="D20" t="b">
+      <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="b">
@@ -1480,7 +1583,12 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>['Reporte de incidentes con fotos', 'Contacto con autoridades', 'Foro comunitario']</t>
+          <t>[0, 3, 4]</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>(12, 24]</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1602,7 @@
       <c r="C21" t="n">
         <v>18</v>
       </c>
-      <c r="D21" t="b">
+      <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="b">
@@ -1532,7 +1640,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>['Reporte de incidentes con fotos', 'Contacto con autoridades']</t>
+          <t>[0, 3]</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>(12, 24]</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1659,7 @@
       <c r="C22" t="n">
         <v>19</v>
       </c>
-      <c r="D22" t="b">
+      <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="b">
@@ -1584,7 +1697,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>['Notificaciones de seguimiento']</t>
+          <t>[2]</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>(12, 24]</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1716,7 @@
       <c r="C23" t="n">
         <v>20</v>
       </c>
-      <c r="D23" t="b">
+      <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="b">
@@ -1636,7 +1754,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>['Reporte de incidentes con fotos']</t>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>(12, 24]</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1773,7 @@
       <c r="C24" t="n">
         <v>22</v>
       </c>
-      <c r="D24" t="b">
+      <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="b">
@@ -1688,7 +1811,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>['Reporte de incidentes con fotos', 'Ubicación del incidente', 'Notificaciones de seguimiento', 'Contacto con autoridades', 'Foro comunitario']</t>
+          <t>[0, 1, 2, 3, 4]</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>(12, 24]</t>
         </is>
       </c>
     </row>

--- a/output/datos_serializados.xlsx
+++ b/output/datos_serializados.xlsx
@@ -525,14 +525,14 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>-2</v>
@@ -550,8 +550,8 @@
           <t>[1]</t>
         </is>
       </c>
-      <c r="K2" t="b">
-        <v>0</v>
+      <c r="K2" t="n">
+        <v>1</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -577,14 +577,14 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>-1</v>
@@ -602,7 +602,7 @@
           <t>[1]</t>
         </is>
       </c>
-      <c r="K3" t="b">
+      <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
@@ -629,14 +629,14 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
+      <c r="D4" t="n">
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="n">
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>-1</v>
@@ -654,7 +654,7 @@
           <t>[1]</t>
         </is>
       </c>
-      <c r="K4" t="b">
+      <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
@@ -681,14 +681,14 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
+      <c r="D5" t="n">
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>-1</v>
@@ -706,8 +706,8 @@
           <t>[0, 2]</t>
         </is>
       </c>
-      <c r="K5" t="b">
-        <v>0</v>
+      <c r="K5" t="n">
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -733,14 +733,14 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>-1</v>
@@ -758,7 +758,7 @@
           <t>[1, 2]</t>
         </is>
       </c>
-      <c r="K6" t="b">
+      <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
@@ -785,14 +785,14 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>-1</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
@@ -810,7 +810,7 @@
           <t>[2, 3]</t>
         </is>
       </c>
-      <c r="K7" t="b">
+      <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
@@ -837,14 +837,14 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-1</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>-1</v>
@@ -862,7 +862,7 @@
           <t>[0, 2]</t>
         </is>
       </c>
-      <c r="K8" t="b">
+      <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
@@ -889,14 +889,14 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9" t="n">
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>-1</v>
@@ -914,8 +914,8 @@
           <t>[0, 2]</t>
         </is>
       </c>
-      <c r="K9" t="b">
-        <v>0</v>
+      <c r="K9" t="n">
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>-1</v>
@@ -941,14 +941,14 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="b">
-        <v>1</v>
+      <c r="D10" t="n">
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -966,8 +966,8 @@
           <t>[0, 1, 2, 3]</t>
         </is>
       </c>
-      <c r="K10" t="b">
-        <v>0</v>
+      <c r="K10" t="n">
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -993,14 +993,14 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="b">
-        <v>1</v>
+      <c r="D11" t="n">
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
+      <c r="F11" t="n">
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1018,8 +1018,8 @@
           <t>[0]</t>
         </is>
       </c>
-      <c r="K11" t="b">
-        <v>0</v>
+      <c r="K11" t="n">
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1045,14 +1045,14 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="b">
-        <v>1</v>
+      <c r="D12" t="n">
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
+      <c r="F12" t="n">
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>-1</v>
@@ -1070,8 +1070,8 @@
           <t>[0, 2]</t>
         </is>
       </c>
-      <c r="K12" t="b">
-        <v>0</v>
+      <c r="K12" t="n">
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1097,14 +1097,14 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="b">
-        <v>1</v>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
+      <c r="F13" t="n">
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>-1</v>
@@ -1122,8 +1122,8 @@
           <t>[0, 1, 2, 3]</t>
         </is>
       </c>
-      <c r="K13" t="b">
-        <v>0</v>
+      <c r="K13" t="n">
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>-1</v>
@@ -1149,14 +1149,14 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="b">
-        <v>1</v>
+      <c r="D14" t="n">
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
+      <c r="F14" t="n">
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1174,8 +1174,8 @@
           <t>[0, 1, 3]</t>
         </is>
       </c>
-      <c r="K14" t="b">
-        <v>0</v>
+      <c r="K14" t="n">
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>-2</v>
@@ -1201,14 +1201,14 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
-      <c r="D15" t="b">
-        <v>1</v>
+      <c r="D15" t="n">
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1226,8 +1226,8 @@
           <t>[0, 2, 3]</t>
         </is>
       </c>
-      <c r="K15" t="b">
-        <v>0</v>
+      <c r="K15" t="n">
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>-2</v>
@@ -1253,14 +1253,14 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="b">
-        <v>1</v>
+      <c r="D16" t="n">
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>-1</v>
@@ -1278,8 +1278,8 @@
           <t>[0, 1]</t>
         </is>
       </c>
-      <c r="K16" t="b">
-        <v>0</v>
+      <c r="K16" t="n">
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1305,14 +1305,14 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="b">
-        <v>1</v>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
+      <c r="F17" t="n">
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>-1</v>
@@ -1330,7 +1330,7 @@
           <t>[1]</t>
         </is>
       </c>
-      <c r="K17" t="b">
+      <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
@@ -1357,14 +1357,14 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="D18" t="b">
-        <v>1</v>
+      <c r="D18" t="n">
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
+      <c r="F18" t="n">
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1382,8 +1382,8 @@
           <t>[0]</t>
         </is>
       </c>
-      <c r="K18" t="b">
-        <v>0</v>
+      <c r="K18" t="n">
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>-2</v>
@@ -1409,14 +1409,14 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="D19" t="b">
-        <v>1</v>
+      <c r="D19" t="n">
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
+      <c r="F19" t="n">
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1434,8 +1434,8 @@
           <t>[0, 1, 3]</t>
         </is>
       </c>
-      <c r="K19" t="b">
-        <v>0</v>
+      <c r="K19" t="n">
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>-2</v>
@@ -1461,14 +1461,14 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
-      <c r="D20" t="b">
-        <v>1</v>
+      <c r="D20" t="n">
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
+      <c r="F20" t="n">
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>-1</v>
@@ -1486,8 +1486,8 @@
           <t>[1, 3]</t>
         </is>
       </c>
-      <c r="K20" t="b">
-        <v>0</v>
+      <c r="K20" t="n">
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>-2</v>
@@ -1513,14 +1513,14 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" t="b">
-        <v>1</v>
+      <c r="D21" t="n">
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
+      <c r="F21" t="n">
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>-2</v>
@@ -1538,8 +1538,8 @@
           <t>[0]</t>
         </is>
       </c>
-      <c r="K21" t="b">
-        <v>0</v>
+      <c r="K21" t="n">
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1565,14 +1565,14 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
-      <c r="D22" t="b">
-        <v>0</v>
+      <c r="D22" t="n">
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
+      <c r="F22" t="n">
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>-2</v>
@@ -1590,7 +1590,7 @@
           <t>[2]</t>
         </is>
       </c>
-      <c r="K22" t="b">
+      <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
@@ -1617,14 +1617,14 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D23" t="b">
-        <v>1</v>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
+      <c r="F23" t="n">
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1642,8 +1642,8 @@
           <t>[1]</t>
         </is>
       </c>
-      <c r="K23" t="b">
-        <v>0</v>
+      <c r="K23" t="n">
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>-1</v>
@@ -1669,14 +1669,14 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" t="b">
-        <v>1</v>
+      <c r="D24" t="n">
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
+      <c r="F24" t="n">
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1694,8 +1694,8 @@
           <t>[0, 1, 2]</t>
         </is>
       </c>
-      <c r="K24" t="b">
-        <v>0</v>
+      <c r="K24" t="n">
+        <v>1</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>

--- a/output/datos_serializados.xlsx
+++ b/output/datos_serializados.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,6 +511,11 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>sexo</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>rango_edad</t>
         </is>
       </c>
@@ -561,7 +566,10 @@
           <t>[0]</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>(24, 36]</t>
         </is>
@@ -613,7 +621,10 @@
           <t>[3]</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>(36, 48]</t>
         </is>
@@ -665,7 +676,10 @@
           <t>[0]</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>(36, 48]</t>
         </is>
@@ -717,7 +731,10 @@
           <t>[1, 2, 4]</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>(12, 24]</t>
         </is>
@@ -769,7 +786,10 @@
           <t>[0, 1, 2]</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>(24, 36]</t>
         </is>
@@ -821,7 +841,10 @@
           <t>[1, 2]</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>(24, 36]</t>
         </is>
@@ -873,7 +896,10 @@
           <t>[0, 1]</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>(36, 48]</t>
         </is>
@@ -925,7 +951,10 @@
           <t>[0, 3]</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>(36, 48]</t>
         </is>
@@ -977,7 +1006,10 @@
           <t>[0]</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>(24, 36]</t>
         </is>
@@ -1029,7 +1061,10 @@
           <t>[3]</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>(12, 24]</t>
         </is>
@@ -1081,7 +1116,10 @@
           <t>[0, 4]</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>(24, 36]</t>
         </is>
@@ -1133,7 +1171,10 @@
           <t>[0, 1, 2, 3, 4]</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>(12, 24]</t>
         </is>
@@ -1185,7 +1226,10 @@
           <t>[0, 1, 2, 3, 4]</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>(12, 24]</t>
         </is>
@@ -1237,7 +1281,10 @@
           <t>[0, 1, 2, 3, 4]</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>(24, 36]</t>
         </is>
@@ -1289,7 +1336,10 @@
           <t>[0, 1, 2, 3]</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>(12, 24]</t>
         </is>
@@ -1341,7 +1391,10 @@
           <t>[1]</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>(12, 24]</t>
         </is>
@@ -1393,7 +1446,10 @@
           <t>[0, 3]</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="inlineStr">
         <is>
           <t>(12, 24]</t>
         </is>
@@ -1445,7 +1501,10 @@
           <t>[0, 1, 3]</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>(12, 24]</t>
         </is>
@@ -1497,7 +1556,10 @@
           <t>[0, 3, 4]</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="inlineStr">
         <is>
           <t>(12, 24]</t>
         </is>
@@ -1549,7 +1611,10 @@
           <t>[0, 3]</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="inlineStr">
         <is>
           <t>(12, 24]</t>
         </is>
@@ -1601,7 +1666,10 @@
           <t>[2]</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="inlineStr">
         <is>
           <t>(12, 24]</t>
         </is>
@@ -1653,7 +1721,10 @@
           <t>[0]</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="inlineStr">
         <is>
           <t>(12, 24]</t>
         </is>
@@ -1705,7 +1776,10 @@
           <t>[0, 1, 2, 3, 4]</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="inlineStr">
         <is>
           <t>(12, 24]</t>
         </is>
